--- a/CP05MOAS-GL376/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
+++ b/CP05MOAS-GL376/Omaha_Cal_Info_CP05MOAS-GL376_00003.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CP05MOAS-GL376\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="5640" windowWidth="23460" windowHeight="10240" tabRatio="377"/>
+    <workbookView xWindow="6435" yWindow="5640" windowWidth="23460" windowHeight="10245" tabRatio="377"/>
   </bookViews>
   <sheets>
-    <sheet name="Glider" sheetId="1" r:id="rId1"/>
+    <sheet name="Moorings" sheetId="1" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$F$19</definedName>
     <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$19</definedName>
-    <definedName name="_FilterDatabase_0">Glider!#REF!</definedName>
-    <definedName name="_FilterDatabase_0_0">Glider!$A$1:$J$99</definedName>
-    <definedName name="_FilterDatabase_0_0_0">Glider!#REF!</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0">Glider!$A$1:$J$99</definedName>
+    <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
+    <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$99</definedName>
+    <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0">Moorings!$A$1:$J$99</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$386</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$1</definedName>
@@ -27,10 +32,10 @@
     <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$19</definedName>
     <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_1_1_1">Glider!$A$1:$J$99</definedName>
+    <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$386</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -118,24 +123,6 @@
   </si>
   <si>
     <t>No calibration coefficient</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL001-01-ADCPAM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL001-02-FLORTM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL001-03-CTDGVM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL001-04-DOSTAM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL001-05-PARADM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL001-00-ENG000000</t>
   </si>
   <si>
     <t>AT-31</t>
@@ -161,6 +148,24 @@
   </si>
   <si>
     <t>SS-1 Line</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL376-01-ADCPAM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL376-02-FLORTM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL376-03-CTDGVM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL376-04-DOSTAM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL376-05-PARADM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL376-00-ENG000000</t>
   </si>
 </sst>
 </file>
@@ -589,6 +594,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -884,20 +892,20 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="8" width="19.83203125" customWidth="1"/>
-    <col min="9" max="10" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,9 +940,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="32" customFormat="1" ht="15">
+    <row r="2" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6">
         <v>376</v>
@@ -945,69 +953,71 @@
       <c r="D2" s="26">
         <v>42289</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8">
+        <v>6.25E-2</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I2" s="24">
         <v>1000</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="7:8">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="7:8">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="7:8">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="7:8">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
@@ -1027,21 +1037,21 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
+    <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1061,9 +1071,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" s="12">
         <v>376</v>
@@ -1094,9 +1104,9 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" s="12">
         <v>376</v>
@@ -1127,9 +1137,9 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B4" s="12">
         <v>376</v>
@@ -1160,9 +1170,9 @@
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B5" s="12">
         <v>376</v>
@@ -1193,7 +1203,7 @@
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1212,9 +1222,9 @@
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:17" s="4" customFormat="1">
+    <row r="7" spans="1:17" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B7" s="12">
         <v>376</v>
@@ -1240,9 +1250,9 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:17" s="4" customFormat="1">
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B8" s="12">
         <v>376</v>
@@ -1268,9 +1278,9 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:17" s="4" customFormat="1">
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" s="12">
         <v>376</v>
@@ -1296,9 +1306,9 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1">
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B10" s="12">
         <v>376</v>
@@ -1324,7 +1334,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:17" s="4" customFormat="1">
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1338,9 +1348,9 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:17" s="4" customFormat="1">
+    <row r="12" spans="1:17" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B12" s="12">
         <v>376</v>
@@ -1362,7 +1372,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:17" s="4" customFormat="1">
+    <row r="13" spans="1:17" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1376,9 +1386,9 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:17" s="4" customFormat="1">
+    <row r="14" spans="1:17" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B14" s="12">
         <v>376</v>
@@ -1400,7 +1410,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:17" s="4" customFormat="1">
+    <row r="15" spans="1:17" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1414,9 +1424,9 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:17" s="4" customFormat="1">
+    <row r="16" spans="1:17" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B16" s="12">
         <v>376</v>
@@ -1438,7 +1448,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1">
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1452,9 +1462,9 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1">
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12">
         <v>376</v>
@@ -1476,7 +1486,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" s="4" customFormat="1">
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1490,12 +1500,12 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
